--- a/inputdata - 4.xlsx
+++ b/inputdata - 4.xlsx
@@ -190,10 +190,10 @@
     <t>单元号</t>
   </si>
   <si>
-    <t xml:space="preserve">NOTE: matrix input format, column first, N/mm, </t>
-  </si>
-  <si>
     <t>delete redundant blank space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: matrix input format, column first, kN/mm, </t>
   </si>
 </sst>
 </file>
@@ -670,17 +670,17 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
